--- a/Bike_Data/Report_dashboard.xlsx
+++ b/Bike_Data/Report_dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaura\data_science_projs\Bike_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90980CEA-29C1-41C6-B6CA-D3CB7FCE6599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A79F304B-3173-447E-AA41-CF1536626F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exploratory Analysis" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,56 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>579158</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>141743</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Bike Rentals">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA257B2-6ED3-00CA-E479-0E88EFFC3961}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="268877"/>
+          <a:ext cx="18867158" cy="5239523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
@@ -119,10 +169,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Corr_mat">
+        <xdr:cNvPr id="14" name="Corr_mat">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C689E7B1-AD6F-1DF5-93E5-7776E7E66911}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6ACA9D6-E3D0-E380-56CF-7A4FEF653891}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -131,7 +181,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -144,58 +194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6583680"/>
-          <a:ext cx="10985014" cy="6726950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>579158</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>141743</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Bike Rentals">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FF1466-375E-AA1F-A460-8308E86119EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="266700"/>
-          <a:ext cx="18867158" cy="5178563"/>
+          <a:off x="609600" y="6662057"/>
+          <a:ext cx="10985014" cy="6805327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -213,21 +213,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>126275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>371908</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>112826</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>393699</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Tree">
+        <xdr:cNvPr id="3" name="Tree">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791F1B07-0D7B-B560-4CF5-6D17AF728D12}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAB0258-7A78-F033-F103-294DB09107F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -249,8 +249,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1051560"/>
-          <a:ext cx="23742448" cy="23201426"/>
+          <a:off x="0" y="2532018"/>
+          <a:ext cx="24374928" cy="22848024"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -267,27 +267,27 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>1135381</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>541039</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>6109</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37138</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Feature">
+        <xdr:cNvPr id="3" name="Feature">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EACF0E01-4369-1CCA-19F4-5772035FAC14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F838316E-5642-014D-575F-EB61566B2815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -304,8 +304,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="899160"/>
-          <a:ext cx="9311659" cy="6239269"/>
+          <a:off x="1135381" y="1524000"/>
+          <a:ext cx="6880859" cy="3999538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -582,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EA64F0-817A-48BC-9368-3C84C6A8BAC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C23" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -624,7 +624,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA648BD-2408-4FD0-91F1-4E661AB857C0}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +672,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
